--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0199EA4-FA66-4DAA-85EE-C91B868FDA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E7312-C1F4-457B-AD01-B7EA1A1754C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="2850" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="固定値" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$50</definedName>
-    <definedName name="Z_11D2A99E_BA84_4030_BF54_AB5229A78CA5_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$49</definedName>
+    <definedName name="Z_11D2A99E_BA84_4030_BF54_AB5229A78CA5_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -225,16 +225,11 @@
     <t>アカウントの有効期限が超過している</t>
   </si>
   <si>
-    <t>REQUEST_INFO_ERROR</t>
-  </si>
-  <si>
-    <t>リクエスト情報が不正</t>
-  </si>
-  <si>
     <t>ILLEGAL_ACCESS_ERROR</t>
   </si>
   <si>
-    <t>session情報が不正</t>
+    <t>session情報が不正、リクエスト情報が不正</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -758,9 +753,9 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -860,11 +855,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -903,14 +898,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="4">
-        <f t="shared" ref="A2:A50" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A49" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f t="shared" ref="C2:C50" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
+        <f t="shared" ref="C2:C49" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
         <v>CE0001</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1499,22 +1494,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>DW0028</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
@@ -1817,23 +1804,8 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G50" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{11D2A99E-BA84-4030-BF54-AB5229A78CA5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,32 +1813,32 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D49">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D49">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D49">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D49">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E50">
+  <conditionalFormatting sqref="E2:E49">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E50">
+  <conditionalFormatting sqref="E2:E49">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
@@ -1881,13 +1853,13 @@
           <x14:formula1>
             <xm:f>固定値!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E29</xm:sqref>
+          <xm:sqref>E2:E28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>固定値!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D50</xm:sqref>
+          <xm:sqref>D2:D49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E7312-C1F4-457B-AD01-B7EA1A1754C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557CEEE-6B1B-40AD-A8BD-07B13ECCBF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="2850" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1170" windowWidth="24240" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="固定値" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$49</definedName>
-    <definedName name="Z_11D2A99E_BA84_4030_BF54_AB5229A78CA5_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
+    <definedName name="Z_11D2A99E_BA84_4030_BF54_AB5229A78CA5_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -180,15 +181,6 @@
     <t>APIの実行に失敗。APIキーが正しいことを確認</t>
   </si>
   <si>
-    <t>HEALTH_INFO_REG_EMPTY</t>
-  </si>
-  <si>
-    <t>健康情報登録APIで必須項目が指定されていない</t>
-  </si>
-  <si>
-    <t>健康情報照会APIで必須項目が指定されていない</t>
-  </si>
-  <si>
     <t>REQUEST_TYPE_INVALID_ERROR</t>
   </si>
   <si>
@@ -229,6 +221,14 @@
   </si>
   <si>
     <t>session情報が不正、リクエスト情報が不正</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>API_REQUIRE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>APIで必須項目が指定されていない</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -753,9 +753,9 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -855,11 +855,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -898,14 +898,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="4">
-        <f t="shared" ref="A2:A49" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A48" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f t="shared" ref="C2:C49" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
+        <f t="shared" ref="C2:C48" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
         <v>CE0001</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1288,7 +1288,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -1333,21 +1333,21 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>AW0021</v>
+        <v>DW0021</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -1357,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1370,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -1380,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -1403,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1416,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -1426,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -1449,7 +1449,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="8"/>
     </row>
@@ -1471,22 +1471,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>DW0027</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1">
@@ -1789,23 +1781,8 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{11D2A99E-BA84-4030-BF54-AB5229A78CA5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1813,32 +1790,32 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D2:D49">
+  <conditionalFormatting sqref="D2:D48">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D49">
+  <conditionalFormatting sqref="D2:D48">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D49">
+  <conditionalFormatting sqref="D2:D48">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D49">
+  <conditionalFormatting sqref="D2:D48">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E49">
+  <conditionalFormatting sqref="E2:E48">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E49">
+  <conditionalFormatting sqref="E2:E48">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
@@ -1853,13 +1830,13 @@
           <x14:formula1>
             <xm:f>固定値!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E28</xm:sqref>
+          <xm:sqref>E2:E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>固定値!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D49</xm:sqref>
+          <xm:sqref>D2:D48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557CEEE-6B1B-40AD-A8BD-07B13ECCBF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B49D6-69C8-49AF-8CA8-832B5F045536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1170" windowWidth="24240" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="22425" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -221,15 +221,15 @@
   </si>
   <si>
     <t>session情報が不正、リクエスト情報が不正</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>API_REQUIRE</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>APIで必須項目が指定されていない</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -239,18 +239,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Meiryo"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -273,6 +266,19 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -343,47 +349,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,96 +767,96 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="53" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="12"/>
+    <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>43770</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -857,9 +869,9 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -874,912 +886,912 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <f t="shared" ref="A2:A48" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="10" t="str">
         <f t="shared" ref="C2:C48" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
         <v>CE0001</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0002</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0003</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0004</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0005</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0006</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0007</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CE0008</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0009</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0010</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0011</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0012</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0013</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0014</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0015</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0016</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>CW0017</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>AE0018</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>AW0019</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>AW0020</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0021</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0022</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0023</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0024</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0025</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DW0026</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A44" s="4">
+      <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A47" s="4">
+      <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -1789,7 +1801,7 @@
       <autoFilter ref="A1:G50" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D2:D48">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"C"</formula>
@@ -1856,41 +1868,41 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B49D6-69C8-49AF-8CA8-832B5F045536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD475D-EC01-4C4B-B73D-379C03C13629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="22425" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="1290" windowWidth="22830" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -869,9 +869,9 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850030D-9A3B-4B31-9D91-53CFA6141943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC0B1CD-F16C-424F-B5DE-EF5F3FD5FB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1770" windowWidth="21600" windowHeight="12855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -304,6 +304,20 @@
 　&gt;28</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>画面で複数回送信ボタンを押下したため、失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MULTI_SUBMIT_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エラーコード一覧 シート
+　以下を追加
+　&gt;31</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,20 +503,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,7 +899,8 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -943,53 +970,53 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="12"/>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>43770</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="14" t="s">
         <v>62</v>
       </c>
@@ -1013,20 +1040,20 @@
     </row>
     <row r="5" spans="1:27" ht="63" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>43918</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="17">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="18" t="s">
         <v>79</v>
       </c>
       <c r="K5" s="15"/>
@@ -1047,17 +1074,24 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="48" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="24">
+        <v>43988</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17">
+        <f>F5+0.01</f>
+        <v>1.02</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -1078,14 +1112,14 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1107,14 +1141,14 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1136,14 +1170,14 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1165,14 +1199,14 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -1194,14 +1228,14 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1223,14 +1257,14 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1252,14 +1286,14 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1281,14 +1315,14 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1310,14 +1344,14 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1339,14 +1373,14 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1368,14 +1402,14 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1397,14 +1431,14 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -1426,14 +1460,14 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -1455,14 +1489,14 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -1484,14 +1518,14 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -1513,14 +1547,14 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -1542,14 +1576,14 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -1571,14 +1605,14 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -1600,14 +1634,14 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -1687,12 +1721,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1702,60 +1784,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,8 +1805,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2504,14 +2538,22 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="C32" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DW0031</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1">
@@ -2795,6 +2837,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="21" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/ha-resource/01_design/91_エラーコード.xlsx
+++ b/ha-resource/01_design/91_エラーコード.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639EA294-A21C-45EC-B53C-2A02CCFD8CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A49708-10C4-4BDB-8C70-115EE9FB4A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2745" windowWidth="21600" windowHeight="12855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="Z_9C5975FA_2BBB_426C_A314_4AD02EB0E158_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -299,13 +300,7 @@
     <t>BASIC_API_CONNERR</t>
   </si>
   <si>
-    <t>健康情報計算API-基礎健康情報計算の通信に失敗しました</t>
-  </si>
-  <si>
     <t>CALORIE_API_CONNERR</t>
-  </si>
-  <si>
-    <t>健康情報計算API-カロリー計算の通信に失敗しました</t>
   </si>
   <si>
     <t>AWS_SES_MAIL_ADDRESS_VERRIFIED_ERROR</t>
@@ -324,6 +319,24 @@
   </si>
   <si>
     <t>APIの通信に失敗しています。対向サーバに問題があります</t>
+  </si>
+  <si>
+    <t>BREATHING_API_CONNECT_ERROR</t>
+  </si>
+  <si>
+    <t>TOKEN_API_CONNECT_ERROR</t>
+  </si>
+  <si>
+    <t>健康情報計算API-肺活量計算APIの通信に失敗しました</t>
+  </si>
+  <si>
+    <t>健康情報計算API-Token発行APIの通信に失敗しました</t>
+  </si>
+  <si>
+    <t>健康情報計算API-基礎健康情報計算APIの通信に失敗しました</t>
+  </si>
+  <si>
+    <t>健康情報計算API-カロリー計算APIの通信に失敗しました</t>
   </si>
 </sst>
 </file>
@@ -508,11 +521,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -525,15 +542,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -966,681 +1027,681 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="18">
+      <c r="B4" s="20">
         <v>44030</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="16"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="16"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="16"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="16"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="16"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="16"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="16"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="16"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
@@ -1703,12 +1764,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1718,60 +1827,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,20 +1848,20 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="21"/>
+    <col min="1" max="1" width="5.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
@@ -2558,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -2568,7 +2629,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2581,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -2591,7 +2652,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2604,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -2614,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2627,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -2637,7 +2698,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2650,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G37" s="10"/>
     </row>
@@ -2659,14 +2720,22 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="C38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>BE0037</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1">
@@ -2674,14 +2743,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="C39" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>BE0038</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1">
@@ -2828,38 +2905,72 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D2:D48">
+  <conditionalFormatting sqref="D2:D37 D40:D48">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D40:D48">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D40:D48">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37 E40:E48">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37 E40:E48">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D40:D48">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D48">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D48">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E48">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E48">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D48">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="21" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
